--- a/biology/Botanique/Square_Taras-Chevtchenko/Square_Taras-Chevtchenko.xlsx
+++ b/biology/Botanique/Square_Taras-Chevtchenko/Square_Taras-Chevtchenko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Taras-Chevtchenko est un square du 6e arrondissement de Paris.
@@ -512,9 +524,11 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site se trouve au croisement de la rue des Saints-Pères et du boulevard Saint-Germain[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site se trouve au croisement de la rue des Saints-Pères et du boulevard Saint-Germain.
 Il est desservi par la ligne 4 à la station Saint-Germain-des-Prés.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce square porte le nom de Taras Chevtchenko (1814-1861), un poète, peintre et humaniste ukrainien[1]. Ce nom est vraisemblablement attribué en raison de la proximité avec la cathédrale Saint-Vladimir-le-Grand, lieu de culte ukrainien, aussi appelée « Mission ukrainienne », qui jouxte le square.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce square porte le nom de Taras Chevtchenko (1814-1861), un poète, peintre et humaniste ukrainien. Ce nom est vraisemblablement attribué en raison de la proximité avec la cathédrale Saint-Vladimir-le-Grand, lieu de culte ukrainien, aussi appelée « Mission ukrainienne », qui jouxte le square.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il recouvre l'ancien cimetière Saint-Germain, que l'on utilisait pour inhumer les pestiférés et les protestants.
-Il porte à l'origine le nom de square de la Charité[1].
+Il porte à l'origine le nom de square de la Charité.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square comporte un monument représentant Taras Chevtchenko (avec -ss final à Tarass) et un autre de René Quillivic en hommage à René Laennec.
 Une plaque contre le square commémore l'immigration ukrainienne en France, faisant notamment mention de la cathédrale Saint-Volodymyr-le-Grand adjacente.
